--- a/odkx/forms/hh_death.xlsx
+++ b/odkx/forms/hh_death.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -155,6 +155,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -174,6 +189,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -276,7 +309,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -322,17 +355,17 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -536,9 +569,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
   </cols>
   <sheetData>
@@ -622,17 +655,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,18 +681,33 @@
       <c r="C1" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210128001</v>
@@ -664,26 +715,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_death.xlsx
+++ b/odkx/forms/hh_death.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -62,6 +62,12 @@
     <t xml:space="preserve">inputAttributes.step</t>
   </si>
   <si>
+    <t xml:space="preserve">calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
     <t xml:space="preserve">ABC-123-700</t>
   </si>
   <si>
+    <t xml:space="preserve">/^[A-Z]{3}-[0-9]{3}-7[0-9]{2}$/.test(data('hh_death_id'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">hh_death_name</t>
   </si>
   <si>
@@ -110,6 +119,30 @@
     <t xml:space="preserve">65e. Date of death of the person who died</t>
   </si>
   <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_date_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('hh_death_date_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer</t>
   </si>
   <si>
@@ -141,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
   </si>
   <si>
     <t xml:space="preserve">hh_id</t>
@@ -309,7 +345,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -349,13 +385,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -396,93 +432,137 @@
       <c r="I1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -501,13 +581,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -516,35 +596,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -585,58 +676,58 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -657,11 +748,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -673,116 +764,116 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210128001</v>
+        <v>20210203001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_death.xlsx
+++ b/odkx/forms/hh_death.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="model" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="settings" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.text</t>
+    <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
     <t xml:space="preserve">display.hint.text</t>
@@ -77,172 +78,256 @@
     <t xml:space="preserve">hh_death_id</t>
   </si>
   <si>
+    <t xml:space="preserve">q65a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC-123-700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/^[A-Z]{3}-[0-9]{3}-7[0-9]{2}$/.test(data('hh_death_id'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q65b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q65c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q65d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q65e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_date_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('hh_death_date_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q65f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Household Recent Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">65a. ExtID of the person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">ABC-123-700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/^[A-Z]{3}-[0-9]{3}-7[0-9]{2}$/.test(data('hh_death_id'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death_name</t>
+    <t xml:space="preserve">65a. ExtID da pessoa que faleceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65a. ExtID ya mtu aliyefariki</t>
   </si>
   <si>
     <t xml:space="preserve">65b. Given name of the person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">hh_death_surname</t>
+    <t xml:space="preserve">65b. Nome próprio da pessoa que faleceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65b. Jina la kupewa la mtu aliyefariki</t>
   </si>
   <si>
     <t xml:space="preserve">65c. Surname of the person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death_gender</t>
+    <t xml:space="preserve">65c. Apelido da pessoa que faleceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65c. Jina la ukoo la mtu aliyefariki</t>
   </si>
   <si>
     <t xml:space="preserve">65d. Gender of the person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death_date</t>
+    <t xml:space="preserve">65d. Género da pessoa que faleceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65d. Jinsia ya mtu aliyefariki</t>
   </si>
   <si>
     <t xml:space="preserve">65e. Date of death of the person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death_date_dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('hh_death_date_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death_age</t>
+    <t xml:space="preserve">65e. Data do óbito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65e. Tarehe ya kifo cha mtu aliyefariki</t>
   </si>
   <si>
     <t xml:space="preserve">65f. Approximate age of person who died</t>
   </si>
   <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
+    <t xml:space="preserve">65f. Idade aproximada da pessoa que faleceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65f. Kadirio la umri wa mtu aliyefariki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não sabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sijui</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">female</t>
+    <t xml:space="preserve">Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ke</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Household Recent Deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Português</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiswahili</t>
+    <t xml:space="preserve">Feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me</t>
   </si>
 </sst>
 </file>
@@ -345,7 +430,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -387,18 +472,18 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
@@ -583,15 +668,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +698,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,10 +706,10 @@
         <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +745,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -676,10 +761,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,7 +837,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -764,41 +849,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210203001</v>
@@ -806,74 +891,241 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>72</v>
+      <c r="D1" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_death.xlsx
+++ b/odkx/forms/hh_death.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,6 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="model" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="settings" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -51,7 +50,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
+    <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
     <t xml:space="preserve">display.hint.text</t>
@@ -78,7 +77,7 @@
     <t xml:space="preserve">hh_death_id</t>
   </si>
   <si>
-    <t xml:space="preserve">q65a</t>
+    <t xml:space="preserve">65a. ExtID of the person who died</t>
   </si>
   <si>
     <t xml:space="preserve">ABC-123-700</t>
@@ -90,13 +89,13 @@
     <t xml:space="preserve">hh_death_name</t>
   </si>
   <si>
-    <t xml:space="preserve">q65b</t>
+    <t xml:space="preserve">65b. Given name of the person who died</t>
   </si>
   <si>
     <t xml:space="preserve">hh_death_surname</t>
   </si>
   <si>
-    <t xml:space="preserve">q65c</t>
+    <t xml:space="preserve">65c. Surname of the person who died</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -108,7 +107,7 @@
     <t xml:space="preserve">hh_death_gender</t>
   </si>
   <si>
-    <t xml:space="preserve">q65d</t>
+    <t xml:space="preserve">65d. Gender of the person who died</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -117,7 +116,7 @@
     <t xml:space="preserve">hh_death_date</t>
   </si>
   <si>
-    <t xml:space="preserve">q65e</t>
+    <t xml:space="preserve">65e. Date of death of the person who died</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple</t>
@@ -150,7 +149,7 @@
     <t xml:space="preserve">hh_death_age</t>
   </si>
   <si>
-    <t xml:space="preserve">q65f</t>
+    <t xml:space="preserve">65f. Approximate age of person who died</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -162,15 +161,24 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">male</t>
   </si>
   <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
     <t xml:space="preserve">hh_id</t>
   </si>
   <si>
@@ -183,9 +191,6 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.title.text.pt</t>
   </si>
   <si>
@@ -238,96 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65a. ExtID of the person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65a. ExtID da pessoa que faleceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65a. ExtID ya mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65b. Given name of the person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65b. Nome próprio da pessoa que faleceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65b. Jina la kupewa la mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65c. Surname of the person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65c. Apelido da pessoa que faleceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65c. Jina la ukoo la mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65d. Gender of the person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65d. Género da pessoa que faleceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65d. Jinsia ya mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65e. Date of death of the person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65e. Data do óbito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65e. Tarehe ya kifo cha mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65f. Approximate age of person who died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65f. Idade aproximada da pessoa que faleceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65f. Kadirio la umri wa mtu aliyefariki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não sabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sijui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masculino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feminino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me</t>
   </si>
 </sst>
 </file>
@@ -430,7 +345,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -472,18 +387,18 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
@@ -668,15 +583,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +613,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,10 +621,10 @@
         <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +635,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -761,10 +676,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +752,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -849,41 +764,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210203001</v>
@@ -891,241 +806,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_death.xlsx
+++ b/odkx/forms/hh_death.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -69,6 +69,9 @@
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
+    <t xml:space="preserve">display.constraint_message</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -87,18 +90,33 @@
     <t xml:space="preserve">/^[A-Z]{3}-[0-9]{3}-7[0-9]{2}$/.test(data('hh_death_id'))</t>
   </si>
   <si>
+    <t xml:space="preserve">extid_format</t>
+  </si>
+  <si>
     <t xml:space="preserve">hh_death_name</t>
   </si>
   <si>
     <t xml:space="preserve">q65b</t>
   </si>
   <si>
+    <t xml:space="preserve">!/\p{N}/u.test(data('hh_death_name'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">hh_death_surname</t>
   </si>
   <si>
     <t xml:space="preserve">q65c</t>
   </si>
   <si>
+    <t xml:space="preserve">!/\p{N}/u.test(data('hh_death_surname'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one</t>
   </si>
   <si>
@@ -328,6 +346,15 @@
   </si>
   <si>
     <t xml:space="preserve">Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given name of the individual cannot contain numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surname of the individual cannot contain numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID must be in this format ABC-123-701 (3 capital letters, '-', 3 numbers, '-', 7##).</t>
   </si>
 </sst>
 </file>
@@ -430,7 +457,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -470,13 +497,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -487,6 +514,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="43.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,120 +552,138 @@
       <c r="K1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -647,7 +694,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -672,55 +719,55 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +792,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.39"/>
@@ -761,58 +808,58 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +884,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -849,41 +896,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210203001</v>
@@ -891,74 +938,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -977,155 +1024,179 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
